--- a/setup-repo/CodeSystem-mii-cs-person-vitalstatus.xlsx
+++ b/setup-repo/CodeSystem-mii-cs-person-vitalstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2026.0.0-dev.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
